--- a/data/input/Liquidaciones/HFF_Liquidation-8F_Air-AWB_369-88354862.xlsx
+++ b/data/input/Liquidaciones/HFF_Liquidation-8F_Air-AWB_369-88354862.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaperalta/Library/Mobile Documents/com~apple~CloudDocs/TEMP. 2023-2024/1.Asistencia comercial/3.Liquidaciones/2.Happy Farm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FD30AD-F957-DF44-8246-81F274C62684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635FBEEA-3CE1-AB47-865B-6DE3AA594A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{2A2E8C12-3932-46A0-B427-DA97E9A3FD5F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{2A2E8C12-3932-46A0-B427-DA97E9A3FD5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>2JD</t>
   </si>
   <si>
-    <t>2JL</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Decay problems</t>
+  </si>
+  <si>
+    <t>2J</t>
   </si>
 </sst>
 </file>
@@ -629,9 +629,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -669,7 +669,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -775,7 +775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -917,7 +917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -931,7 +931,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A29"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1096,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="45" t="s">
         <v>12</v>
@@ -1157,14 +1157,14 @@
     </row>
     <row r="10" spans="1:17" ht="17">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>32</v>
@@ -1206,14 +1206,14 @@
     </row>
     <row r="11" spans="1:17" ht="17">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>32</v>
@@ -1255,14 +1255,14 @@
     </row>
     <row r="12" spans="1:17" ht="17">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>32</v>
@@ -1304,14 +1304,14 @@
     </row>
     <row r="13" spans="1:17" ht="17">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>32</v>
@@ -1344,14 +1344,14 @@
     </row>
     <row r="14" spans="1:17" ht="17">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>32</v>
@@ -1384,20 +1384,20 @@
     </row>
     <row r="15" spans="1:17" ht="17">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G15" s="38">
         <v>45266</v>
@@ -1424,16 +1424,16 @@
     </row>
     <row r="16" spans="1:17" ht="17">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="9">
         <v>280</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>32</v>
@@ -1466,22 +1466,22 @@
     </row>
     <row r="17" spans="1:18" ht="17">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9">
         <v>280</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" s="38">
         <v>45266</v>
@@ -1508,22 +1508,22 @@
     </row>
     <row r="18" spans="1:18" ht="17">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="9">
         <v>280</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" s="38">
         <v>45266</v>
@@ -1550,22 +1550,22 @@
     </row>
     <row r="19" spans="1:18" ht="17">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="9">
         <v>280</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" s="38">
         <v>45266</v>
@@ -1592,14 +1592,14 @@
     </row>
     <row r="20" spans="1:18" ht="17">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>32</v>
@@ -1632,16 +1632,16 @@
     </row>
     <row r="21" spans="1:18" ht="17">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="9">
         <v>280</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>32</v>
@@ -1674,16 +1674,16 @@
     </row>
     <row r="22" spans="1:18" ht="17">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9">
         <v>280</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>32</v>
@@ -1716,14 +1716,14 @@
     </row>
     <row r="23" spans="1:18" ht="17">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>32</v>
@@ -1756,14 +1756,14 @@
     </row>
     <row r="24" spans="1:18" ht="17">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>32</v>
@@ -1796,14 +1796,14 @@
     </row>
     <row r="25" spans="1:18" ht="17">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>32</v>
@@ -1836,20 +1836,20 @@
     </row>
     <row r="26" spans="1:18" ht="17">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G26" s="38">
         <v>45268</v>
@@ -1876,14 +1876,14 @@
     </row>
     <row r="27" spans="1:18" ht="17">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>32</v>
@@ -1920,16 +1920,16 @@
     </row>
     <row r="28" spans="1:18" ht="17">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9">
         <v>280</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>32</v>
@@ -1966,14 +1966,14 @@
     </row>
     <row r="29" spans="1:18" ht="17">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>32</v>
